--- a/doc/wyposazenie-tablice.xlsx
+++ b/doc/wyposazenie-tablice.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+  <si>
+    <t xml:space="preserve">TABLICE DLA PROJEKTU: WYPOSAZENIE</t>
+  </si>
   <si>
     <t xml:space="preserve">  tablica: miejsca</t>
   </si>
@@ -47,6 +50,12 @@
   </si>
   <si>
     <t xml:space="preserve">Str(150), nie pusty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEGENDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 do wielu</t>
   </si>
   <si>
     <r>
@@ -162,7 +171,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -170,7 +179,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="11"/>
@@ -189,14 +198,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF4000"/>
-        <bgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF8000"/>
-        <bgColor rgb="FFFF8080"/>
+        <bgColor rgb="FFFF6600"/>
       </patternFill>
     </fill>
     <fill>
@@ -240,20 +249,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -261,8 +274,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -273,7 +286,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -337,7 +350,7 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFBF00"/>
       <rgbColor rgb="FFFF8000"/>
-      <rgbColor rgb="FFFF4000"/>
+      <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -353,15 +366,944 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>61920</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>111240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>601920</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>118440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="0" name="Line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5162760" y="2915280"/>
+          <a:ext cx="540000" cy="7200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>92520</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>102960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>115560</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>117720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="Line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5193360" y="628560"/>
+          <a:ext cx="23040" cy="2293200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1552680</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>102960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>112320</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>102960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3888000" y="628560"/>
+          <a:ext cx="1325160" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180360</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>602640</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4678560" y="3074400"/>
+          <a:ext cx="1024920" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>192600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>102960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>192600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>86760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4690800" y="2556360"/>
+          <a:ext cx="0" cy="509760"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1552680</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>102960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>198720</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>111240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3888000" y="2556360"/>
+          <a:ext cx="808920" cy="8280"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>178920</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>118800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>585720</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>118800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4677120" y="3448440"/>
+          <a:ext cx="1009440" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>184680</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>117360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>208080</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>102960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4682880" y="3447000"/>
+          <a:ext cx="23400" cy="1082880"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>102960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>206640</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>110880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3895560" y="4529880"/>
+          <a:ext cx="809280" cy="7920"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>100440</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>100440</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>166680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3996000" y="525240"/>
+          <a:ext cx="0" cy="167040"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>493200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>23400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>593640</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5594040" y="2827440"/>
+          <a:ext cx="100440" cy="71640"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>487080</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>103320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>602640</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5587920" y="2907360"/>
+          <a:ext cx="115560" cy="119160"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>88560</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>23040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>88560</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3984120" y="2476440"/>
+          <a:ext cx="0" cy="167040"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>501840</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>22680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>602280</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>94320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5602680" y="3002040"/>
+          <a:ext cx="100440" cy="71640"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>501840</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>86400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>14760</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5602680" y="3065760"/>
+          <a:ext cx="115560" cy="119160"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>88560</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>88560</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>174960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3984120" y="4434840"/>
+          <a:ext cx="0" cy="167040"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>440280</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>102240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>563400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5541120" y="3431880"/>
+          <a:ext cx="123120" cy="118800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>501840</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>22680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>602280</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>94320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5602680" y="3352320"/>
+          <a:ext cx="100440" cy="71640"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>73440</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>110880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>750960</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>110880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10464480" y="1162440"/>
+          <a:ext cx="677520" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142560</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>31320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142560</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>23400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10533600" y="1082880"/>
+          <a:ext cx="0" cy="167040"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>612720</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>728280</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>71280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11003760" y="1178640"/>
+          <a:ext cx="115560" cy="119160"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>582120</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>735840</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>119160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10973160" y="1058760"/>
+          <a:ext cx="153720" cy="111960"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C2:I30"/>
+  <dimension ref="C1:M30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -372,226 +1314,234 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="8.54"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="7"/>
+      <c r="L7" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="H13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="4" t="s">
+      <c r="I17" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="D27" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="5"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="H13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="4" t="s">
+      <c r="D28" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="5"/>
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-    </row>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="C2:D2"/>
+    <mergeCell ref="L6:M6"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C24:D24"/>
@@ -603,5 +1553,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>